--- a/Сoaxial Сylinders v_1.11/Documents/Different/Оценка порядка точности.xlsx
+++ b/Сoaxial Сylinders v_1.11/Documents/Different/Оценка порядка точности.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Visual Studio\Coaxial Сylinders\Сoaxial Сylinders v_1.11\Сoaxial Сylinders v_1.11\Documents\Different\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561123CB-DB84-4FE8-B8C9-5DB902337D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28D12FE-A8DB-49A4-9F66-326C1819DB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F365D3E-7A95-4138-9B28-2F5F42E608DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5F365D3E-7A95-4138-9B28-2F5F42E608DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Общее исследование (итог. табл)" sheetId="5" r:id="rId1"/>
-    <sheet name="Общее исследование" sheetId="4" r:id="rId2"/>
-    <sheet name="Общее исследование (новая табл)" sheetId="6" r:id="rId3"/>
-    <sheet name="Одна лопасть" sheetId="1" r:id="rId4"/>
-    <sheet name="Без лопастей 2" sheetId="3" r:id="rId5"/>
+    <sheet name="Статья (итог. табл)" sheetId="7" r:id="rId2"/>
+    <sheet name="Общее исследование" sheetId="4" r:id="rId3"/>
+    <sheet name="Общее исследование (новая табл)" sheetId="6" r:id="rId4"/>
+    <sheet name="Одна лопасть" sheetId="1" r:id="rId5"/>
+    <sheet name="Без лопастей 2" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,6 +69,40 @@
     <author>Дмитрий</author>
   </authors>
   <commentList>
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{C18B34C2-214A-4998-AA39-6A739EC5025C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Дмитрий:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Количество ячеек сетки в данном столбце отличается от реальной сетки, так как модель в gmsh использовала не 13, а 91 точку на внешней границе</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Дмитрий</author>
+  </authors>
+  <commentList>
     <comment ref="A20" authorId="0" shapeId="0" xr:uid="{7D860CA9-0F35-41C9-BC0A-4402DF233799}">
       <text>
         <r>
@@ -96,7 +131,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Дмитрий</author>
@@ -131,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="20">
   <si>
     <t>Ux</t>
   </si>
@@ -247,6 +282,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -305,7 +343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -748,22 +786,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -820,26 +847,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -858,8 +866,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -870,15 +893,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1194,10 +1236,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475750B2-6DC0-4E08-A7DD-769272557DE5}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8:O8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,29 +1256,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="42"/>
-      <c r="Q1" s="46" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="50"/>
+      <c r="Q1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="48"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="41"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
@@ -1281,13 +1326,13 @@
       <c r="O2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="49">
+      <c r="Q2" s="42">
         <f>AVERAGEA(M3:O8,K12:M17,K21:M26)</f>
-        <v>1.1989367166624281</v>
-      </c>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="51"/>
+        <v>1.2223755562694649</v>
+      </c>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="44"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
@@ -1323,13 +1368,13 @@
       <c r="K3" s="23">
         <v>1.8295565998000001</v>
       </c>
-      <c r="L3" s="53">
+      <c r="L3" s="51">
         <f>2*3.14159265358979/3</f>
         <v>2.0943951023931935</v>
       </c>
       <c r="M3" s="29">
-        <f>ABS(LN(ABS(($L$3-K3)/($L$3-K4))/LN(B3/B4)))</f>
-        <v>1.6538963697392508</v>
+        <f>ABS(LN(ABS(($L$3-K3)/($L$3-K4))/LN(D3/D4)))</f>
+        <v>1.6631687312227557</v>
       </c>
       <c r="N3" s="30">
         <f>(LOG(ABS((L3-K4)/K4),2)-LOG(ABS((L3-K3)/K3),2))/(LOG((D4),2) - LOG(D3,2))</f>
@@ -1374,10 +1419,10 @@
       <c r="K4" s="2">
         <v>1.9565688275999999</v>
       </c>
-      <c r="L4" s="54"/>
+      <c r="L4" s="52"/>
       <c r="M4" s="29">
-        <f t="shared" ref="M4:M7" si="0">ABS(LN(ABS(($L$3-K4)/($L$3-K5))/LN(B4/B5)))</f>
-        <v>1.6718899127124569</v>
+        <f t="shared" ref="M4:M7" si="0">ABS(LN(ABS(($L$3-K4)/($L$3-K5))/LN(D4/D5)))</f>
+        <v>1.6749026292498288</v>
       </c>
       <c r="N4" s="30">
         <f>(LOG(ABS((L3-K5)/K5),2)-LOG(ABS((L3-K4)/K4),2))/(LOG((D5),2) - LOG(D4,2))</f>
@@ -1419,10 +1464,10 @@
       <c r="K5" s="2">
         <v>2.0214536595000001</v>
       </c>
-      <c r="L5" s="54"/>
+      <c r="L5" s="52"/>
       <c r="M5" s="29">
         <f t="shared" si="0"/>
-        <v>1.8521598949427855</v>
+        <v>1.8533697183396101</v>
       </c>
       <c r="N5" s="30">
         <f>(LOG(ABS((L3-K6)/K6),2)-LOG(ABS((L3-K5)/K5),2))/(LOG((D6),2) - LOG(D5,2))</f>
@@ -1464,10 +1509,10 @@
       <c r="K6" s="2">
         <v>2.0615488725</v>
       </c>
-      <c r="L6" s="54"/>
+      <c r="L6" s="52"/>
       <c r="M6" s="29">
         <f t="shared" si="0"/>
-        <v>1.7286148889666402</v>
+        <v>1.7303854853383294</v>
       </c>
       <c r="N6" s="30">
         <f>(LOG(ABS((L3-K7)/K7),2)-LOG(ABS((L3-K6)/K6),2))/(LOG((D7),2) - LOG(D6,2))</f>
@@ -1509,13 +1554,16 @@
       <c r="K7" s="36">
         <v>2.0777779862000001</v>
       </c>
-      <c r="L7" s="54"/>
-      <c r="M7" s="56">
+      <c r="L7" s="52"/>
+      <c r="M7" s="29">
         <f t="shared" si="0"/>
-        <v>1.7207935590298626</v>
-      </c>
-      <c r="N7" s="38"/>
-      <c r="O7" s="39"/>
+        <v>1.7215739571457922</v>
+      </c>
+      <c r="N7" s="30">
+        <f>(LOG(ABS((L3-K8)/K8),2)-LOG(ABS((L3-K7)/K7),2))/(LOG((D8),2) - LOG(D7,2))</f>
+        <v>1.9255668975885769</v>
+      </c>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
@@ -1551,31 +1599,31 @@
       <c r="K8" s="9">
         <v>2.0858630634000002</v>
       </c>
-      <c r="L8" s="55"/>
-      <c r="M8" s="57">
+      <c r="L8" s="53"/>
+      <c r="M8" s="45">
         <f>AVERAGE(M3:N7)</f>
-        <v>1.8679448875568856</v>
-      </c>
-      <c r="N8" s="58"/>
-      <c r="O8" s="59"/>
+        <v>1.875311678150587</v>
+      </c>
+      <c r="N8" s="46"/>
+      <c r="O8" s="47"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="45"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="56"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -1860,21 +1908,21 @@
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="45"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="56"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -2159,20 +2207,779 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A19:M19"/>
     <mergeCell ref="Q1:T1"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="L3:L8"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16C6B7C-DBF8-43DC-A12F-9E27420502C3}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:S26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
+      <c r="P1" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="41"/>
+    </row>
+    <row r="2" spans="1:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
+        <v>872</v>
+      </c>
+      <c r="B3" s="59">
+        <v>6.166787E-2</v>
+      </c>
+      <c r="C3" s="59">
+        <v>5.3941960000000004E-3</v>
+      </c>
+      <c r="D3" s="60">
+        <v>1.8295565998000001</v>
+      </c>
+      <c r="E3" s="64">
+        <f>2*3.14159265358979/3</f>
+        <v>2.0943951023931935</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>1758</v>
+      </c>
+      <c r="B4" s="61">
+        <v>4.2843740700000001E-2</v>
+      </c>
+      <c r="C4" s="61">
+        <v>2.5992445999999999E-3</v>
+      </c>
+      <c r="D4" s="61">
+        <v>1.9565688275999999</v>
+      </c>
+      <c r="E4" s="65"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3500</v>
+      </c>
+      <c r="B5" s="61">
+        <v>3.0072090400000001E-2</v>
+      </c>
+      <c r="C5" s="61">
+        <v>1.2338153E-3</v>
+      </c>
+      <c r="D5" s="61">
+        <v>2.0214536595000001</v>
+      </c>
+      <c r="E5" s="65"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>6922</v>
+      </c>
+      <c r="B6" s="61">
+        <v>2.12338465E-2</v>
+      </c>
+      <c r="C6" s="61">
+        <v>6.1713019999999998E-4</v>
+      </c>
+      <c r="D6" s="61">
+        <v>2.0615488725</v>
+      </c>
+      <c r="E6" s="65"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="35">
+        <v>13810</v>
+      </c>
+      <c r="B7" s="62">
+        <v>1.4958836499999999E-2</v>
+      </c>
+      <c r="C7" s="62">
+        <v>3.0753749999999999E-4</v>
+      </c>
+      <c r="D7" s="62">
+        <v>2.0777779862000001</v>
+      </c>
+      <c r="E7" s="65"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>27514</v>
+      </c>
+      <c r="B8" s="63">
+        <v>1.0560271600000001E-2</v>
+      </c>
+      <c r="C8" s="63">
+        <v>1.724056E-4</v>
+      </c>
+      <c r="D8" s="63">
+        <v>2.0858630634000002</v>
+      </c>
+      <c r="E8" s="66"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="50"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>437</v>
+      </c>
+      <c r="B12" s="2">
+        <v>6.8541834900000001E-2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>7.7674038000000001E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>8.9621687699999994E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.17767096639999999</v>
+      </c>
+      <c r="F12" s="2">
+        <v>9.4158790899999997E-2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1.16163325E-2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>-0.59209408549999998</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1.7889844999999999E-3</v>
+      </c>
+      <c r="J12" s="12">
+        <v>4.8251834757000003</v>
+      </c>
+      <c r="K12" s="17">
+        <f>ABS(LOG(ABS((J12-J13)/(J13-J14)),(A13/A12)))</f>
+        <v>1.4531371704126101</v>
+      </c>
+      <c r="L12" s="18">
+        <f>ABS((LOG(ABS((J13-J14)/J14),2)-LOG(ABS((J12-J13)/J13),2))/(LOG((D14),2) - LOG(D12,2)))</f>
+        <v>1.2105805487661288</v>
+      </c>
+      <c r="M12" s="19">
+        <f>LOG(ABS((J12-J14)/(J14-J16)),(A14/A12))</f>
+        <v>0.5799037599141148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>859</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4.7630490800000001E-2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5.4193011399999998E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6.2338799E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.13672689590000001</v>
+      </c>
+      <c r="F13" s="2">
+        <v>6.6807384600000005E-2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>5.8127980999999997E-3</v>
+      </c>
+      <c r="H13" s="2">
+        <v>-0.58272351310000003</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1.6649465E-3</v>
+      </c>
+      <c r="J13" s="12">
+        <v>4.9779540988999997</v>
+      </c>
+      <c r="K13" s="17">
+        <f>ABS(LOG(ABS((J13-J14)/(J14-J15)),(A14/A13)))</f>
+        <v>1.2842981265676239</v>
+      </c>
+      <c r="L13" s="18">
+        <f>(LOG(ABS((J14-J15)/J15),2)-LOG(ABS((J13-J14)/J14),2))/(LOG((D15),2) - LOG(D13,2))</f>
+        <v>1.3066299597737223</v>
+      </c>
+      <c r="M13" s="19">
+        <f>LOG(ABS((J13-J15)/(J15-J17)),(A15/A13))</f>
+        <v>0.95189348394685913</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>1779</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3.2393254900000001E-2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3.7021824799999999E-2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4.2495812500000001E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>8.7485034099999998E-2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>4.4023539700000003E-2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2.5723743000000002E-3</v>
+      </c>
+      <c r="H14" s="2">
+        <v>-0.52223565679999995</v>
+      </c>
+      <c r="I14" s="2">
+        <v>3.3421199999999998E-5</v>
+      </c>
+      <c r="J14" s="12">
+        <v>5.3858531082000001</v>
+      </c>
+      <c r="K14" s="17">
+        <f>ABS(LOG(ABS((J14-J15)/(J15-J16)),(A15/A14)))</f>
+        <v>0.86894459015045133</v>
+      </c>
+      <c r="L14" s="18">
+        <f>(LOG(ABS((J15-J16)/J16),2)-LOG(ABS((J14-J15)/J15),2))/(LOG((D16),2) - LOG(D14,2))</f>
+        <v>0.87443373771738742</v>
+      </c>
+      <c r="M14" s="19"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>3531</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2.2701051699999999E-2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2.59997805E-2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2.98017226E-2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>6.2895145E-2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3.1715278700000002E-2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1.3205432E-3</v>
+      </c>
+      <c r="H15" s="2">
+        <v>-0.52052446190000001</v>
+      </c>
+      <c r="I15" s="2">
+        <v>7.9280999999999995E-6</v>
+      </c>
+      <c r="J15" s="12">
+        <v>5.5459856852999998</v>
+      </c>
+      <c r="K15" s="17">
+        <f>ABS(LOG(ABS((J15-J16)/(J16-J17)),(A16/A15)))</f>
+        <v>0.58200197308156687</v>
+      </c>
+      <c r="L15" s="18">
+        <f>(LOG(ABS((J16-J17)/J17),2)-LOG(ABS((J15-J16)/J16),2))/(LOG((D17),2) - LOG(D15,2))</f>
+        <v>0.56933926308422622</v>
+      </c>
+      <c r="M15" s="19"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>6923</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1.6073853799999999E-2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.8459330999999999E-2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2.1117931400000001E-2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4.4421197000000003E-2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2.2025218900000001E-2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>6.3842550000000004E-4</v>
+      </c>
+      <c r="H16" s="2">
+        <v>-0.51826271589999995</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2.5502000000000002E-6</v>
+      </c>
+      <c r="J16" s="12">
+        <v>5.6342481339999999</v>
+      </c>
+      <c r="K16" s="17"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="19"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>14113</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1.1184787700000001E-2</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1.2852364599999999E-2</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1.4699695400000001E-2</v>
+      </c>
+      <c r="E17" s="9">
+        <v>3.06687538E-2</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1.55467682E-2</v>
+      </c>
+      <c r="G17" s="9">
+        <v>3.1684209999999999E-4</v>
+      </c>
+      <c r="H17" s="9">
+        <v>-0.50637611400000004</v>
+      </c>
+      <c r="I17" s="9">
+        <v>1.4286E-6</v>
+      </c>
+      <c r="J17" s="13">
+        <v>5.6938967766999999</v>
+      </c>
+      <c r="K17" s="20"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="22"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="50"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>437</v>
+      </c>
+      <c r="B21" s="2">
+        <v>6.9058050300000007E-2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>7.7832715400000002E-2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>9.0160010400000004E-2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.19779184520000001</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.1011968687</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1.3352957699999999E-2</v>
+      </c>
+      <c r="H21" s="2">
+        <v>-8.4039826999999998E-3</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1.1551E-5</v>
+      </c>
+      <c r="J21" s="12">
+        <v>6.1697157708999999</v>
+      </c>
+      <c r="K21" s="17">
+        <f>ABS(LOG(ABS((J21-J22)/(J22-J23)),(A22/A21)))</f>
+        <v>0.91250133049327231</v>
+      </c>
+      <c r="L21" s="18">
+        <f>ABS((LOG(ABS((J22-J23)/J23),2)-LOG(ABS((J21-J22)/J22),2))/(LOG((D23),2) - LOG(D21,2)))</f>
+        <v>0.76131205297079252</v>
+      </c>
+      <c r="M21" s="19">
+        <f>LOG(ABS((J21-J23)/(J23-J25)),(A23/A21))</f>
+        <v>0.5567045284524712</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>869</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4.73522096E-2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>5.3748878799999997E-2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>6.1916103600000001E-2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.1351808699</v>
+      </c>
+      <c r="F22" s="2">
+        <v>7.0694914499999997E-2</v>
+      </c>
+      <c r="G22" s="2">
+        <v>6.5809014999999998E-3</v>
+      </c>
+      <c r="H22" s="2">
+        <v>-6.3051330999999997E-3</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1.3873E-6</v>
+      </c>
+      <c r="J22" s="12">
+        <v>6.3710281466999996</v>
+      </c>
+      <c r="K22" s="17">
+        <f>ABS(LOG(ABS((J22-J23)/(J23-J24)),(A23/A22)))</f>
+        <v>1.1406334425098277</v>
+      </c>
+      <c r="L22" s="18">
+        <f>(LOG(ABS((J23-J24)/J24),2)-LOG(ABS((J22-J23)/J23),2))/(LOG((D24),2) - LOG(D22,2))</f>
+        <v>1.1326024907847352</v>
+      </c>
+      <c r="M22" s="19">
+        <f>LOG(ABS((J22-J24)/(J24-J26)),(A26/A24))</f>
+        <v>0.85610450062744414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>1757</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3.2494560499999998E-2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3.7098392299999998E-2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4.2655983000000001E-2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>8.7426870599999998E-2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4.5782799399999997E-2</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2.7453102E-3</v>
+      </c>
+      <c r="H23" s="2">
+        <v>-5.1650263000000002E-3</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2.586E-7</v>
+      </c>
+      <c r="J23" s="12">
+        <v>6.7479810618</v>
+      </c>
+      <c r="K23" s="17">
+        <f>ABS(LOG(ABS((J23-J24)/(J24-J25)),(A24/A23)))</f>
+        <v>0.79576595691417062</v>
+      </c>
+      <c r="L23" s="18">
+        <f>(LOG(ABS((J24-J25)/J25),2)-LOG(ABS((J23-J24)/J24),2))/(LOG((D25),2) - LOG(D23,2))</f>
+        <v>0.79413089970729278</v>
+      </c>
+      <c r="M23" s="19"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>3497</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2.2707022300000001E-2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2.5972650900000002E-2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2.9813035500000001E-2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>6.5650928600000005E-2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3.2343383699999999E-2</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1.3637406E-3</v>
+      </c>
+      <c r="H24" s="2">
+        <v>-5.6489306999999997E-3</v>
+      </c>
+      <c r="I24" s="2">
+        <v>3.39E-7</v>
+      </c>
+      <c r="J24" s="12">
+        <v>6.9168447097000003</v>
+      </c>
+      <c r="K24" s="17">
+        <f>ABS(LOG(ABS((J24-J25)/(J25-J26)),(A25/A24)))</f>
+        <v>0.48887199952270982</v>
+      </c>
+      <c r="L24" s="18">
+        <f>(LOG(ABS((J25-J26)/J26),2)-LOG(ABS((J24-J25)/J25),2))/(LOG((D26),2) - LOG(D24,2))</f>
+        <v>0.48573352272225856</v>
+      </c>
+      <c r="M24" s="19"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>6907</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1.6002791299999999E-2</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1.8365861599999998E-2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2.1026843600000001E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>4.4822349800000001E-2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2.2907505500000001E-2</v>
+      </c>
+      <c r="G25" s="2">
+        <v>6.8269550000000004E-4</v>
+      </c>
+      <c r="H25" s="2">
+        <v>-4.7245211000000002E-3</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1.3399999999999999E-8</v>
+      </c>
+      <c r="J25" s="12">
+        <v>7.0144925689999997</v>
+      </c>
+      <c r="K25" s="17"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="19"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>13883</v>
+      </c>
+      <c r="B26" s="9">
+        <v>1.1201387199999999E-2</v>
+      </c>
+      <c r="C26" s="9">
+        <v>1.28763743E-2</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1.47239042E-2</v>
+      </c>
+      <c r="E26" s="9">
+        <v>3.03175054E-2</v>
+      </c>
+      <c r="F26" s="9">
+        <v>1.5621945599999999E-2</v>
+      </c>
+      <c r="G26" s="9">
+        <v>3.2000030000000002E-4</v>
+      </c>
+      <c r="H26" s="9">
+        <v>-2.9596262E-3</v>
+      </c>
+      <c r="I26" s="9">
+        <v>4.3999999999999997E-9</v>
+      </c>
+      <c r="J26" s="13">
+        <v>7.0845017800000001</v>
+      </c>
+      <c r="K26" s="20"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A19:M19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="A10:M10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B7C9090-B8EF-4266-A10F-57637B91CC72}">
   <dimension ref="A1:R26"/>
   <sheetViews>
@@ -2192,27 +2999,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
-      <c r="O1" s="46" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="50"/>
+      <c r="O1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="48"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="41"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -2254,13 +3061,13 @@
       <c r="M2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="49">
+      <c r="O2" s="42">
         <f>(K3+L3+M3+M4+L4+K4+K5+L5+L6+K6+K12+L12+M12+M13+L13+K13+K14+L14+L15+K15+K21+L21+M21+M22+L22+K22+K23+L23+L24+K24)/30</f>
         <v>0.91646730325433123</v>
       </c>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="51"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="44"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -2305,13 +3112,13 @@
         <f>LOG(ABS((J3-J5)/(J5-J7)),(A5/A3))</f>
         <v>0.93290176797265467</v>
       </c>
-      <c r="O3" s="52">
+      <c r="O3" s="57">
         <f>AVERAGEA(K3:M8,K12:M17,K21:M26)</f>
         <v>0.91646730325433123</v>
       </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -2535,21 +3342,21 @@
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="45"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="56"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -2874,21 +3681,21 @@
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="45"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="56"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -3225,7 +4032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F9E11F-A75C-48A7-BFE9-891FD61DCD45}">
   <dimension ref="A1:T23"/>
   <sheetViews>
@@ -3246,29 +4053,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="42"/>
-      <c r="Q1" s="46" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="50"/>
+      <c r="Q1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="48"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="41"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
@@ -3316,10 +4123,10 @@
       <c r="O2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="51"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="44"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
@@ -3368,10 +4175,10 @@
         <f>LOG(ABS((K3-K5)/(K5-K7)),(A5/A3))</f>
         <v>0.88206600284674996</v>
       </c>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -3577,23 +4384,23 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="45"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="56"/>
     </row>
     <row r="10" spans="1:20" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
@@ -3850,23 +4657,23 @@
     </row>
     <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="45"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="56"/>
     </row>
     <row r="18" spans="1:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
@@ -4135,7 +4942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8781E2EE-5C1A-4A43-BF13-D396F59C9535}">
   <dimension ref="A1:O17"/>
   <sheetViews>
@@ -4154,21 +4961,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="45"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="56"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -4458,21 +5265,21 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="42"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="50"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
@@ -4764,7 +5571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCE480A-25AE-4A3C-8C87-6E155A71F5D7}">
   <dimension ref="A1:M7"/>
   <sheetViews>

--- a/Сoaxial Сylinders v_1.11/Documents/Different/Оценка порядка точности.xlsx
+++ b/Сoaxial Сylinders v_1.11/Documents/Different/Оценка порядка точности.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Visual Studio\Coaxial Сylinders\Сoaxial Сylinders v_1.11\Сoaxial Сylinders v_1.11\Documents\Different\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28D12FE-A8DB-49A4-9F66-326C1819DB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51ABC91-FFDC-4E68-B963-2DBF516808E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5F365D3E-7A95-4138-9B28-2F5F42E608DA}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5F365D3E-7A95-4138-9B28-2F5F42E608DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Общее исследование (итог. табл)" sheetId="5" r:id="rId1"/>
@@ -282,8 +282,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -790,7 +791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -848,6 +849,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -893,34 +912,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1241,8 +1243,8 @@
   </sheetPr>
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,29 +1258,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="50"/>
-      <c r="Q1" s="39" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="60"/>
+      <c r="Q1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="41"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="51"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
@@ -1326,13 +1328,13 @@
       <c r="O2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="42">
+      <c r="Q2" s="52">
         <f>AVERAGEA(M3:O8,K12:M17,K21:M26)</f>
         <v>1.2223755562694649</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="44"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="54"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
@@ -1368,11 +1370,11 @@
       <c r="K3" s="23">
         <v>1.8295565998000001</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="61">
         <f>2*3.14159265358979/3</f>
         <v>2.0943951023931935</v>
       </c>
-      <c r="M3" s="29">
+      <c r="M3" s="45">
         <f>ABS(LN(ABS(($L$3-K3)/($L$3-K4))/LN(D3/D4)))</f>
         <v>1.6631687312227557</v>
       </c>
@@ -1419,8 +1421,8 @@
       <c r="K4" s="2">
         <v>1.9565688275999999</v>
       </c>
-      <c r="L4" s="52"/>
-      <c r="M4" s="29">
+      <c r="L4" s="62"/>
+      <c r="M4" s="45">
         <f t="shared" ref="M4:M7" si="0">ABS(LN(ABS(($L$3-K4)/($L$3-K5))/LN(D4/D5)))</f>
         <v>1.6749026292498288</v>
       </c>
@@ -1464,8 +1466,8 @@
       <c r="K5" s="2">
         <v>2.0214536595000001</v>
       </c>
-      <c r="L5" s="52"/>
-      <c r="M5" s="29">
+      <c r="L5" s="62"/>
+      <c r="M5" s="45">
         <f t="shared" si="0"/>
         <v>1.8533697183396101</v>
       </c>
@@ -1509,8 +1511,8 @@
       <c r="K6" s="2">
         <v>2.0615488725</v>
       </c>
-      <c r="L6" s="52"/>
-      <c r="M6" s="29">
+      <c r="L6" s="62"/>
+      <c r="M6" s="45">
         <f t="shared" si="0"/>
         <v>1.7303854853383294</v>
       </c>
@@ -1554,8 +1556,8 @@
       <c r="K7" s="36">
         <v>2.0777779862000001</v>
       </c>
-      <c r="L7" s="52"/>
-      <c r="M7" s="29">
+      <c r="L7" s="62"/>
+      <c r="M7" s="45">
         <f t="shared" si="0"/>
         <v>1.7215739571457922</v>
       </c>
@@ -1599,31 +1601,31 @@
       <c r="K8" s="9">
         <v>2.0858630634000002</v>
       </c>
-      <c r="L8" s="53"/>
-      <c r="M8" s="45">
+      <c r="L8" s="63"/>
+      <c r="M8" s="55">
         <f>AVERAGE(M3:N7)</f>
         <v>1.875311678150587</v>
       </c>
-      <c r="N8" s="46"/>
-      <c r="O8" s="47"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="57"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="56"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="48"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -1908,21 +1910,21 @@
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="56"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="48"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -2228,8 +2230,8 @@
   </sheetPr>
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2243,19 +2245,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
-      <c r="P1" s="39" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
+      <c r="P1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="41"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="51"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
@@ -2270,7 +2272,7 @@
       <c r="D2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="39" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2278,13 +2280,13 @@
       <c r="A3" s="26">
         <v>872</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="40">
         <v>6.166787E-2</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="40">
         <v>5.3941960000000004E-3</v>
       </c>
-      <c r="D3" s="60">
+      <c r="D3" s="41">
         <v>1.8295565998000001</v>
       </c>
       <c r="E3" s="64">
@@ -2296,13 +2298,13 @@
       <c r="A4" s="6">
         <v>1758</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4" s="42">
         <v>4.2843740700000001E-2</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="42">
         <v>2.5992445999999999E-3</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="42">
         <v>1.9565688275999999</v>
       </c>
       <c r="E4" s="65"/>
@@ -2311,13 +2313,13 @@
       <c r="A5" s="6">
         <v>3500</v>
       </c>
-      <c r="B5" s="61">
+      <c r="B5" s="42">
         <v>3.0072090400000001E-2</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="42">
         <v>1.2338153E-3</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="42">
         <v>2.0214536595000001</v>
       </c>
       <c r="E5" s="65"/>
@@ -2326,13 +2328,13 @@
       <c r="A6" s="6">
         <v>6922</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="42">
         <v>2.12338465E-2</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="42">
         <v>6.1713019999999998E-4</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="42">
         <v>2.0615488725</v>
       </c>
       <c r="E6" s="65"/>
@@ -2341,13 +2343,13 @@
       <c r="A7" s="35">
         <v>13810</v>
       </c>
-      <c r="B7" s="62">
+      <c r="B7" s="43">
         <v>1.4958836499999999E-2</v>
       </c>
-      <c r="C7" s="62">
+      <c r="C7" s="43">
         <v>3.0753749999999999E-4</v>
       </c>
-      <c r="D7" s="62">
+      <c r="D7" s="43">
         <v>2.0777779862000001</v>
       </c>
       <c r="E7" s="65"/>
@@ -2356,34 +2358,34 @@
       <c r="A8" s="8">
         <v>27514</v>
       </c>
-      <c r="B8" s="63">
+      <c r="B8" s="44">
         <v>1.0560271600000001E-2</v>
       </c>
-      <c r="C8" s="63">
+      <c r="C8" s="44">
         <v>1.724056E-4</v>
       </c>
-      <c r="D8" s="63">
+      <c r="D8" s="44">
         <v>2.0858630634000002</v>
       </c>
       <c r="E8" s="66"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="50"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="60"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -2668,21 +2670,21 @@
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="50"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="60"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -2999,27 +3001,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="50"/>
-      <c r="O1" s="39" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="60"/>
+      <c r="O1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="41"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="51"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -3061,13 +3063,13 @@
       <c r="M2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="42">
+      <c r="O2" s="52">
         <f>(K3+L3+M3+M4+L4+K4+K5+L5+L6+K6+K12+L12+M12+M13+L13+K13+K14+L14+L15+K15+K21+L21+M21+M22+L22+K22+K23+L23+L24+K24)/30</f>
         <v>0.91646730325433123</v>
       </c>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="44"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="54"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -3112,13 +3114,13 @@
         <f>LOG(ABS((J3-J5)/(J5-J7)),(A5/A3))</f>
         <v>0.93290176797265467</v>
       </c>
-      <c r="O3" s="57">
+      <c r="O3" s="67">
         <f>AVERAGEA(K3:M8,K12:M17,K21:M26)</f>
         <v>0.91646730325433123</v>
       </c>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -3342,21 +3344,21 @@
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="56"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="48"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -3681,21 +3683,21 @@
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="56"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="48"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -4053,29 +4055,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="50"/>
-      <c r="Q1" s="39" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="60"/>
+      <c r="Q1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="41"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="51"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
@@ -4123,10 +4125,10 @@
       <c r="O2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="44"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="54"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
@@ -4175,10 +4177,10 @@
         <f>LOG(ABS((K3-K5)/(K5-K7)),(A5/A3))</f>
         <v>0.88206600284674996</v>
       </c>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -4384,23 +4386,23 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="56"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="48"/>
     </row>
     <row r="10" spans="1:20" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
@@ -4657,23 +4659,23 @@
     </row>
     <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="56"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="48"/>
     </row>
     <row r="18" spans="1:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
@@ -4961,21 +4963,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="56"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -5265,21 +5267,21 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="50"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="60"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">

--- a/Сoaxial Сylinders v_1.11/Documents/Different/Оценка порядка точности.xlsx
+++ b/Сoaxial Сylinders v_1.11/Documents/Different/Оценка порядка точности.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Visual Studio\Coaxial Сylinders\Сoaxial Сylinders v_1.11\Сoaxial Сylinders v_1.11\Documents\Different\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51ABC91-FFDC-4E68-B963-2DBF516808E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435B524F-A2A0-463E-AC3D-2C0413A5E913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5F365D3E-7A95-4138-9B28-2F5F42E608DA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
     <author>Дмитрий</author>
   </authors>
   <commentList>
-    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{B2F0E2B9-183C-4C47-8686-B0B11B02773C}">
+    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{B2F0E2B9-183C-4C47-8686-B0B11B02773C}">
       <text>
         <r>
           <rPr>
@@ -1241,10 +1241,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,8 +1329,8 @@
         <v>12</v>
       </c>
       <c r="Q2" s="52">
-        <f>AVERAGEA(M3:O8,K12:M17,K21:M26)</f>
-        <v>1.2223755562694649</v>
+        <f>AVERAGEA(M3:O8,K12:M17,K22:M27)</f>
+        <v>1.1645640354094</v>
       </c>
       <c r="R2" s="53"/>
       <c r="S2" s="53"/>
@@ -1628,34 +1628,34 @@
       <c r="M10" s="48"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="16" t="s">
         <v>8</v>
       </c>
       <c r="K11" s="14" t="s">
@@ -1696,7 +1696,7 @@
       <c r="I12" s="2">
         <v>1.7889844999999999E-3</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="7">
         <v>4.8251834757000003</v>
       </c>
       <c r="K12" s="17">
@@ -1740,15 +1740,15 @@
       <c r="I13" s="2">
         <v>1.6649465E-3</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="7">
         <v>4.9779540988999997</v>
       </c>
       <c r="K13" s="17">
-        <f t="shared" ref="K13:K15" si="1">ABS(LOG(ABS((J13-J14)/(J14-J15)),(A14/A13)))</f>
+        <f t="shared" ref="K13:K17" si="1">ABS(LOG(ABS((J13-J14)/(J14-J15)),(A14/A13)))</f>
         <v>1.2842981265676239</v>
       </c>
       <c r="L13" s="18">
-        <f t="shared" ref="L13:L15" si="2">(LOG(ABS((J14-J15)/J15),2)-LOG(ABS((J13-J14)/J14),2))/(LOG((D15),2) - LOG(D13,2))</f>
+        <f t="shared" ref="L13:L16" si="2">(LOG(ABS((J14-J15)/J15),2)-LOG(ABS((J13-J14)/J14),2))/(LOG((D15),2) - LOG(D13,2))</f>
         <v>1.3066299597737223</v>
       </c>
       <c r="M13" s="19">
@@ -1784,7 +1784,7 @@
       <c r="I14" s="2">
         <v>3.3421199999999998E-5</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="7">
         <v>5.3858531082000001</v>
       </c>
       <c r="K14" s="17">
@@ -1795,7 +1795,10 @@
         <f t="shared" si="2"/>
         <v>0.87443373771738742</v>
       </c>
-      <c r="M14" s="19"/>
+      <c r="M14" s="19">
+        <f>LOG(ABS((J14-J16)/(J16-J18)),(A16/A14))</f>
+        <v>0.65527657131273054</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
@@ -1825,7 +1828,7 @@
       <c r="I15" s="2">
         <v>7.9280999999999995E-6</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="7">
         <v>5.5459856852999998</v>
       </c>
       <c r="K15" s="17">
@@ -1866,351 +1869,392 @@
       <c r="I16" s="2">
         <v>2.5502000000000002E-6</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="7">
         <v>5.6342481339999999</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="18"/>
+      <c r="K16" s="17">
+        <f t="shared" si="1"/>
+        <v>0.48198440976595325</v>
+      </c>
+      <c r="L16" s="18">
+        <f t="shared" si="2"/>
+        <v>0.50646245762745168</v>
+      </c>
       <c r="M16" s="19"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>14113</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="2">
         <v>1.1184787700000001E-2</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="2">
         <v>1.2852364599999999E-2</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="2">
         <v>1.4699695400000001E-2</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="2">
         <v>3.06687538E-2</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="2">
         <v>1.55467682E-2</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="2">
         <v>3.1684209999999999E-4</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="2">
         <v>-0.50637611400000004</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="2">
         <v>1.4286E-6</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="7">
         <v>5.6938967766999999</v>
       </c>
-      <c r="K17" s="20"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="22"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="46" t="s">
+      <c r="K17" s="17"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="19"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>27095</v>
+      </c>
+      <c r="B18" s="9">
+        <v>8.0399796000000003E-3</v>
+      </c>
+      <c r="C18" s="9">
+        <v>9.2408238000000007E-3</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1.0566402000000001E-2</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2.2631267100000001E-2</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1.12998106E-2</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1.6598080000000001E-4</v>
+      </c>
+      <c r="H18" s="9">
+        <v>-1.8274696E-3</v>
+      </c>
+      <c r="I18" s="9">
+        <v>8.5662738399999994E-2</v>
+      </c>
+      <c r="J18" s="10">
+        <v>5.7362133735</v>
+      </c>
+      <c r="K18" s="20"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="22"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="48"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="60"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="14" t="s">
+      <c r="K21" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="15" t="s">
+      <c r="L21" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="16" t="s">
+      <c r="M21" s="16" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>437</v>
-      </c>
-      <c r="B21" s="2">
-        <v>6.9058050300000007E-2</v>
-      </c>
-      <c r="C21" s="2">
-        <v>7.7832715400000002E-2</v>
-      </c>
-      <c r="D21" s="2">
-        <v>9.0160010400000004E-2</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.19779184520000001</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.1011968687</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1.3352957699999999E-2</v>
-      </c>
-      <c r="H21" s="2">
-        <v>-8.4039826999999998E-3</v>
-      </c>
-      <c r="I21" s="2">
-        <v>1.1551E-5</v>
-      </c>
-      <c r="J21" s="12">
-        <v>6.1697157708999999</v>
-      </c>
-      <c r="K21" s="17">
-        <f>ABS(LOG(ABS((J21-J22)/(J22-J23)),(A22/A21)))</f>
-        <v>0.91250133049327231</v>
-      </c>
-      <c r="L21" s="18">
-        <f>ABS((LOG(ABS((J22-J23)/J23),2)-LOG(ABS((J21-J22)/J22),2))/(LOG((D23),2) - LOG(D21,2)))</f>
-        <v>0.76131205297079252</v>
-      </c>
-      <c r="M21" s="19">
-        <f>LOG(ABS((J21-J23)/(J23-J25)),(A23/A21))</f>
-        <v>0.5567045284524712</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>869</v>
+        <v>437</v>
       </c>
       <c r="B22" s="2">
-        <v>4.73522096E-2</v>
+        <v>6.9058050300000007E-2</v>
       </c>
       <c r="C22" s="2">
-        <v>5.3748878799999997E-2</v>
+        <v>7.7832715400000002E-2</v>
       </c>
       <c r="D22" s="2">
-        <v>6.1916103600000001E-2</v>
+        <v>9.0160010400000004E-2</v>
       </c>
       <c r="E22" s="2">
-        <v>0.1351808699</v>
+        <v>0.19779184520000001</v>
       </c>
       <c r="F22" s="2">
-        <v>7.0694914499999997E-2</v>
+        <v>0.1011968687</v>
       </c>
       <c r="G22" s="2">
-        <v>6.5809014999999998E-3</v>
+        <v>1.3352957699999999E-2</v>
       </c>
       <c r="H22" s="2">
-        <v>-6.3051330999999997E-3</v>
+        <v>-8.4039826999999998E-3</v>
       </c>
       <c r="I22" s="2">
-        <v>1.3873E-6</v>
+        <v>1.1551E-5</v>
       </c>
       <c r="J22" s="12">
-        <v>6.3710281466999996</v>
+        <v>6.1697157708999999</v>
       </c>
       <c r="K22" s="17">
-        <f t="shared" ref="K22:K24" si="3">ABS(LOG(ABS((J22-J23)/(J23-J24)),(A23/A22)))</f>
-        <v>1.1406334425098277</v>
+        <f>ABS(LOG(ABS((J22-J23)/(J23-J24)),(A23/A22)))</f>
+        <v>0.91250133049327231</v>
       </c>
       <c r="L22" s="18">
-        <f t="shared" ref="L22:L24" si="4">(LOG(ABS((J23-J24)/J24),2)-LOG(ABS((J22-J23)/J23),2))/(LOG((D24),2) - LOG(D22,2))</f>
-        <v>1.1326024907847352</v>
+        <f>ABS((LOG(ABS((J23-J24)/J24),2)-LOG(ABS((J22-J23)/J23),2))/(LOG((D24),2) - LOG(D22,2)))</f>
+        <v>0.76131205297079252</v>
       </c>
       <c r="M22" s="19">
-        <f>LOG(ABS((J22-J24)/(J24-J26)),(A26/A24))</f>
-        <v>0.85610450062744414</v>
+        <f>LOG(ABS((J22-J24)/(J24-J26)),(A24/A22))</f>
+        <v>0.5567045284524712</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
+        <v>869</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4.73522096E-2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>5.3748878799999997E-2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>6.1916103600000001E-2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.1351808699</v>
+      </c>
+      <c r="F23" s="2">
+        <v>7.0694914499999997E-2</v>
+      </c>
+      <c r="G23" s="2">
+        <v>6.5809014999999998E-3</v>
+      </c>
+      <c r="H23" s="2">
+        <v>-6.3051330999999997E-3</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1.3873E-6</v>
+      </c>
+      <c r="J23" s="12">
+        <v>6.3710281466999996</v>
+      </c>
+      <c r="K23" s="17">
+        <f t="shared" ref="K23:K25" si="3">ABS(LOG(ABS((J23-J24)/(J24-J25)),(A24/A23)))</f>
+        <v>1.1406334425098277</v>
+      </c>
+      <c r="L23" s="18">
+        <f t="shared" ref="L23:L25" si="4">(LOG(ABS((J24-J25)/J25),2)-LOG(ABS((J23-J24)/J24),2))/(LOG((D25),2) - LOG(D23,2))</f>
+        <v>1.1326024907847352</v>
+      </c>
+      <c r="M23" s="19">
+        <f>LOG(ABS((J23-J25)/(J25-J27)),(A27/A25))</f>
+        <v>0.85610450062744414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
         <v>1757</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B24" s="2">
         <v>3.2494560499999998E-2</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C24" s="2">
         <v>3.7098392299999998E-2</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D24" s="2">
         <v>4.2655983000000001E-2</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E24" s="2">
         <v>8.7426870599999998E-2</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F24" s="2">
         <v>4.5782799399999997E-2</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G24" s="2">
         <v>2.7453102E-3</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H24" s="2">
         <v>-5.1650263000000002E-3</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I24" s="2">
         <v>2.586E-7</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J24" s="12">
         <v>6.7479810618</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K24" s="17">
         <f t="shared" si="3"/>
         <v>0.79576595691417062</v>
       </c>
-      <c r="L23" s="18">
+      <c r="L24" s="18">
         <f t="shared" si="4"/>
         <v>0.79413089970729278</v>
       </c>
-      <c r="M23" s="19"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="M24" s="19"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
         <v>3497</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B25" s="2">
         <v>2.2707022300000001E-2</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C25" s="2">
         <v>2.5972650900000002E-2</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D25" s="2">
         <v>2.9813035500000001E-2</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E25" s="2">
         <v>6.5650928600000005E-2</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F25" s="2">
         <v>3.2343383699999999E-2</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G25" s="2">
         <v>1.3637406E-3</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H25" s="2">
         <v>-5.6489306999999997E-3</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I25" s="2">
         <v>3.39E-7</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J25" s="12">
         <v>6.9168447097000003</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K25" s="17">
         <f t="shared" si="3"/>
         <v>0.48887199952270982</v>
       </c>
-      <c r="L24" s="18">
+      <c r="L25" s="18">
         <f t="shared" si="4"/>
         <v>0.48573352272225856</v>
       </c>
-      <c r="M24" s="19"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="M25" s="19"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
         <v>6907</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B26" s="2">
         <v>1.6002791299999999E-2</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C26" s="2">
         <v>1.8365861599999998E-2</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D26" s="2">
         <v>2.1026843600000001E-2</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E26" s="2">
         <v>4.4822349800000001E-2</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F26" s="2">
         <v>2.2907505500000001E-2</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G26" s="2">
         <v>6.8269550000000004E-4</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H26" s="2">
         <v>-4.7245211000000002E-3</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I26" s="2">
         <v>1.3399999999999999E-8</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J26" s="12">
         <v>7.0144925689999997</v>
       </c>
-      <c r="K25" s="17"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="19"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
+      <c r="K26" s="17"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="19"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
         <v>13883</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B27" s="9">
         <v>1.1201387199999999E-2</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C27" s="9">
         <v>1.28763743E-2</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D27" s="9">
         <v>1.47239042E-2</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E27" s="9">
         <v>3.03175054E-2</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F27" s="9">
         <v>1.5621945599999999E-2</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G27" s="9">
         <v>3.2000030000000002E-4</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H27" s="9">
         <v>-2.9596262E-3</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I27" s="9">
         <v>4.3999999999999997E-9</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J27" s="13">
         <v>7.0845017800000001</v>
       </c>
-      <c r="K26" s="20"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="22"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A20:M20"/>
     <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A19:M19"/>
     <mergeCell ref="Q1:T1"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="M8:O8"/>

--- a/Сoaxial Сylinders v_1.11/Documents/Different/Оценка порядка точности.xlsx
+++ b/Сoaxial Сylinders v_1.11/Documents/Different/Оценка порядка точности.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Visual Studio\Coaxial Сylinders\Сoaxial Сylinders v_1.11\Сoaxial Сylinders v_1.11\Documents\Different\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435B524F-A2A0-463E-AC3D-2C0413A5E913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F419D79-7ACA-4FF2-831C-E3D5572FD205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5F365D3E-7A95-4138-9B28-2F5F42E608DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="721" firstSheet="1" activeTab="6" xr2:uid="{5F365D3E-7A95-4138-9B28-2F5F42E608DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Общее исследование (итог. табл)" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Общее исследование (новая табл)" sheetId="6" r:id="rId4"/>
     <sheet name="Одна лопасть" sheetId="1" r:id="rId5"/>
     <sheet name="Без лопастей 2" sheetId="3" r:id="rId6"/>
+    <sheet name="Общее исследование (испр. табл)" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -165,8 +166,42 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Дмитрий</author>
+  </authors>
+  <commentList>
+    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{DC79FD12-2E09-4257-8E2B-B42CCEE9621F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Дмитрий:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Количество ячеек сетки в данном столбце отличается от реальной сетки, так как модель в gmsh использовала не 13, а 91 точку на внешней границе</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="20">
   <si>
     <t>Ux</t>
   </si>
@@ -858,6 +893,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -892,15 +936,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1243,8 +1278,8 @@
   </sheetPr>
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,29 +1293,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="60"/>
-      <c r="Q1" s="49" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="48"/>
+      <c r="Q1" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="51"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="54"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
@@ -1328,13 +1363,13 @@
       <c r="O2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="52">
+      <c r="Q2" s="55">
         <f>AVERAGEA(M3:O8,K12:M17,K22:M27)</f>
         <v>1.1645640354094</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="54"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="57"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
@@ -1602,30 +1637,30 @@
         <v>2.0858630634000002</v>
       </c>
       <c r="L8" s="63"/>
-      <c r="M8" s="55">
+      <c r="M8" s="58">
         <f>AVERAGE(M3:N7)</f>
         <v>1.875311678150587</v>
       </c>
-      <c r="N8" s="56"/>
-      <c r="O8" s="57"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="60"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="48"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="51"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
@@ -1667,6 +1702,10 @@
       <c r="M11" s="16" t="s">
         <v>12</v>
       </c>
+      <c r="O11">
+        <f>K8/4</f>
+        <v>0.52146576585000004</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
@@ -1744,7 +1783,7 @@
         <v>4.9779540988999997</v>
       </c>
       <c r="K13" s="17">
-        <f t="shared" ref="K13:K17" si="1">ABS(LOG(ABS((J13-J14)/(J14-J15)),(A14/A13)))</f>
+        <f t="shared" ref="K13:K16" si="1">ABS(LOG(ABS((J13-J14)/(J14-J15)),(A14/A13)))</f>
         <v>1.2842981265676239</v>
       </c>
       <c r="L13" s="18">
@@ -1954,21 +1993,21 @@
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="60"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="48"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -2289,19 +2328,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="60"/>
-      <c r="P1" s="49" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+      <c r="P1" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="51"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="54"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
@@ -2415,21 +2454,21 @@
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="60"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="48"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -2714,21 +2753,21 @@
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="60"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="48"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -3045,27 +3084,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="60"/>
-      <c r="O1" s="49" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="48"/>
+      <c r="O1" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="51"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="54"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -3107,13 +3146,13 @@
       <c r="M2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="52">
+      <c r="O2" s="55">
         <f>(K3+L3+M3+M4+L4+K4+K5+L5+L6+K6+K12+L12+M12+M13+L13+K13+K14+L14+L15+K15+K21+L21+M21+M22+L22+K22+K23+L23+L24+K24)/30</f>
         <v>0.91646730325433123</v>
       </c>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="54"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="57"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -3388,21 +3427,21 @@
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="48"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="51"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -3727,21 +3766,21 @@
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="48"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="51"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -4099,29 +4138,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="60"/>
-      <c r="Q1" s="49" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="48"/>
+      <c r="Q1" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="51"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="54"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
@@ -4169,10 +4208,10 @@
       <c r="O2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="54"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="57"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
@@ -4430,23 +4469,23 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="48"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="51"/>
     </row>
     <row r="10" spans="1:20" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
@@ -4703,23 +4742,23 @@
     </row>
     <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="48"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="51"/>
     </row>
     <row r="18" spans="1:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
@@ -5007,21 +5046,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="48"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -5311,21 +5350,21 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="60"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="48"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
@@ -5909,4 +5948,1043 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B898BD-548A-48C1-969A-282EF26524C7}">
+  <dimension ref="A1:T27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="48"/>
+      <c r="Q1" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="54"/>
+    </row>
+    <row r="2" spans="1:20" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="55">
+        <f>AVERAGEA(M3:O8,K12:M17,K22:M27)</f>
+        <v>1.1988698369684312</v>
+      </c>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="57"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
+        <v>872</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4.7154514299999999E-2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5.3522793800000003E-2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>6.166787E-2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.13141868540000001</v>
+      </c>
+      <c r="F3" s="4">
+        <v>6.4092994E-2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5.3941960000000004E-3</v>
+      </c>
+      <c r="H3" s="4">
+        <v>-0.1059270937</v>
+      </c>
+      <c r="I3" s="4">
+        <f>1.2059736935*4</f>
+        <v>4.8238947740000002</v>
+      </c>
+      <c r="J3" s="27">
+        <v>5.5535868129999999</v>
+      </c>
+      <c r="K3" s="23">
+        <f>0.4575233949*4</f>
+        <v>1.8300935796</v>
+      </c>
+      <c r="L3" s="61">
+        <f>2*3.14159265358979/3</f>
+        <v>2.0943951023931935</v>
+      </c>
+      <c r="M3" s="45">
+        <f>ABS(LN(ABS(($L$3-K3)/($L$3-K4))/LN(D3/D4)))</f>
+        <v>1.6629872949768196</v>
+      </c>
+      <c r="N3" s="30">
+        <f>(LOG(ABS((L3-K4)/K4),2)-LOG(ABS((L3-K3)/K3),2))/(LOG((D4),2) - LOG(D3,2))</f>
+        <v>1.9766424218009115</v>
+      </c>
+      <c r="O3" s="31">
+        <f>LOG(ABS((K3-K5)/(K5-K7)),(A5/A3))</f>
+        <v>0.87473779290792764</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>1758</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3.26496301E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.7391840699999998E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4.2843740700000001E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>8.6065754800000005E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4.4363140299999999E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2.5992445999999999E-3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>-9.8004582600000001E-2</v>
+      </c>
+      <c r="I4" s="2">
+        <f>2.2780368651*4</f>
+        <v>9.1121474603999992</v>
+      </c>
+      <c r="J4" s="12">
+        <v>9.2772045229</v>
+      </c>
+      <c r="K4" s="2">
+        <f>0.4892058306*4</f>
+        <v>1.9568233224</v>
+      </c>
+      <c r="L4" s="62"/>
+      <c r="M4" s="45">
+        <f t="shared" ref="M4:M7" si="0">ABS(LN(ABS(($L$3-K4)/($L$3-K5))/LN(D4/D5)))</f>
+        <v>1.6751532098495299</v>
+      </c>
+      <c r="N4" s="30">
+        <f>(LOG(ABS((L3-K5)/K5),2)-LOG(ABS((L3-K4)/K4),2))/(LOG((D5),2) - LOG(D4,2))</f>
+        <v>1.8904788327842799</v>
+      </c>
+      <c r="O4" s="19"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3500</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2.2892365800000002E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.62874931E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.0072090400000001E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6.0546886500000001E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3.0602556199999999E-2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.2338153E-3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>-9.5210931100000007E-2</v>
+      </c>
+      <c r="I5" s="2">
+        <f>1.7024157568*4</f>
+        <v>6.8096630272000001</v>
+      </c>
+      <c r="J5" s="12">
+        <v>6.4731611223999996</v>
+      </c>
+      <c r="K5" s="2">
+        <f>0.5054016467*4</f>
+        <v>2.0216065867999999</v>
+      </c>
+      <c r="L5" s="62"/>
+      <c r="M5" s="45">
+        <f t="shared" si="0"/>
+        <v>1.8577592532450995</v>
+      </c>
+      <c r="N5" s="30">
+        <f>(LOG(ABS((L3-K6)/K6),2)-LOG(ABS((L3-K5)/K5),2))/(LOG((D6),2) - LOG(D5,2))</f>
+        <v>2.3617100112868386</v>
+      </c>
+      <c r="O5" s="19"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>6922</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.6157448299999998E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.8571305199999999E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2.12338465E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4.34101873E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2.1752620100000002E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>6.1713019999999998E-4</v>
+      </c>
+      <c r="H6" s="2">
+        <v>-9.4447774700000001E-2</v>
+      </c>
+      <c r="I6" s="2">
+        <f>4*1.8924469414</f>
+        <v>7.5697877656000001</v>
+      </c>
+      <c r="J6" s="12">
+        <v>7.5691573292000003</v>
+      </c>
+      <c r="K6" s="2">
+        <f>0.5154403248*4</f>
+        <v>2.0617612992000001</v>
+      </c>
+      <c r="L6" s="62"/>
+      <c r="M6" s="45">
+        <f t="shared" si="0"/>
+        <v>1.7616469160487807</v>
+      </c>
+      <c r="N6" s="30">
+        <f>(LOG(ABS((L3-K7)/K7),2)-LOG(ABS((L3-K6)/K6),2))/(LOG((D7),2) - LOG(D6,2))</f>
+        <v>2.057412627104537</v>
+      </c>
+      <c r="O6" s="19"/>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35">
+        <v>13810</v>
+      </c>
+      <c r="B7" s="36">
+        <v>1.13755477E-2</v>
+      </c>
+      <c r="C7" s="36">
+        <v>1.3101835900000001E-2</v>
+      </c>
+      <c r="D7" s="36">
+        <v>1.4958836499999999E-2</v>
+      </c>
+      <c r="E7" s="36">
+        <v>3.2096608800000002E-2</v>
+      </c>
+      <c r="F7" s="36">
+        <v>1.53158203E-2</v>
+      </c>
+      <c r="G7" s="36">
+        <v>3.0753749999999999E-4</v>
+      </c>
+      <c r="H7" s="36">
+        <v>-9.3987639499999998E-2</v>
+      </c>
+      <c r="I7" s="36">
+        <f>4*1.8897125017</f>
+        <v>7.5588500068000002</v>
+      </c>
+      <c r="J7" s="37">
+        <v>7.6478939668999999</v>
+      </c>
+      <c r="K7" s="36">
+        <f>0.5195983964*4</f>
+        <v>2.0783935856000002</v>
+      </c>
+      <c r="L7" s="62"/>
+      <c r="M7" s="45">
+        <f t="shared" si="0"/>
+        <v>1.9690844246560657</v>
+      </c>
+      <c r="N7" s="30">
+        <f>(LOG(ABS((L3-K8)/K8),2)-LOG(ABS((L3-K7)/K7),2))/(LOG((D8),2) - LOG(D7,2))</f>
+        <v>2.6384520302120258</v>
+      </c>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>27514</v>
+      </c>
+      <c r="B8" s="9">
+        <v>8.0284467000000005E-3</v>
+      </c>
+      <c r="C8" s="9">
+        <v>9.2536120999999992E-3</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1.0560271600000001E-2</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2.21376213E-2</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1.1496776300000001E-2</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1.724056E-4</v>
+      </c>
+      <c r="H8" s="9">
+        <v>-9.29170686E-2</v>
+      </c>
+      <c r="I8" s="9">
+        <f>4*1.7331325642</f>
+        <v>6.9325302567999998</v>
+      </c>
+      <c r="J8" s="9">
+        <v>7.0100717196</v>
+      </c>
+      <c r="K8" s="9">
+        <f>0.5219951392*4</f>
+        <v>2.0879805567999998</v>
+      </c>
+      <c r="L8" s="63"/>
+      <c r="M8" s="58">
+        <f>AVERAGE(M3:N7)</f>
+        <v>1.9851327021964889</v>
+      </c>
+      <c r="N8" s="59"/>
+      <c r="O8" s="60"/>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="51"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>437</v>
+      </c>
+      <c r="B12" s="2">
+        <v>6.8541834900000001E-2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>7.7674038000000001E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>8.9621687699999994E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.17767096639999999</v>
+      </c>
+      <c r="F12" s="2">
+        <v>9.4158790899999997E-2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1.16163325E-2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>-0.59209408549999998</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1.7889844999999999E-3</v>
+      </c>
+      <c r="J12" s="7">
+        <v>4.8251834757000003</v>
+      </c>
+      <c r="K12" s="17">
+        <f>ABS(LOG(ABS((J12-J13)/(J13-J14)),(A13/A12)))</f>
+        <v>1.4531371704126101</v>
+      </c>
+      <c r="L12" s="18">
+        <f>ABS((LOG(ABS((J13-J14)/J14),2)-LOG(ABS((J12-J13)/J13),2))/(LOG((D14),2) - LOG(D12,2)))</f>
+        <v>1.2105805487661288</v>
+      </c>
+      <c r="M12" s="19">
+        <f>LOG(ABS((J12-J14)/(J14-J16)),(A14/A12))</f>
+        <v>0.5799037599141148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>859</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4.7630490800000001E-2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5.4193011399999998E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6.2338799E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.13672689590000001</v>
+      </c>
+      <c r="F13" s="2">
+        <v>6.6807384600000005E-2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>5.8127980999999997E-3</v>
+      </c>
+      <c r="H13" s="2">
+        <v>-0.58272351310000003</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1.6649465E-3</v>
+      </c>
+      <c r="J13" s="7">
+        <v>4.9779540988999997</v>
+      </c>
+      <c r="K13" s="17">
+        <f t="shared" ref="K13:K16" si="1">ABS(LOG(ABS((J13-J14)/(J14-J15)),(A14/A13)))</f>
+        <v>1.2842981265676239</v>
+      </c>
+      <c r="L13" s="18">
+        <f t="shared" ref="L13:L16" si="2">(LOG(ABS((J14-J15)/J15),2)-LOG(ABS((J13-J14)/J14),2))/(LOG((D15),2) - LOG(D13,2))</f>
+        <v>1.3066299597737223</v>
+      </c>
+      <c r="M13" s="19">
+        <f>LOG(ABS((J13-J15)/(J15-J17)),(A15/A13))</f>
+        <v>0.95189348394685913</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>1779</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3.2393254900000001E-2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3.7021824799999999E-2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4.2495812500000001E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>8.7485034099999998E-2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>4.4023539700000003E-2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2.5723743000000002E-3</v>
+      </c>
+      <c r="H14" s="2">
+        <v>-0.52223565679999995</v>
+      </c>
+      <c r="I14" s="2">
+        <v>3.3421199999999998E-5</v>
+      </c>
+      <c r="J14" s="7">
+        <v>5.3858531082000001</v>
+      </c>
+      <c r="K14" s="17">
+        <f t="shared" si="1"/>
+        <v>0.86894459015045133</v>
+      </c>
+      <c r="L14" s="18">
+        <f t="shared" si="2"/>
+        <v>0.87443373771738742</v>
+      </c>
+      <c r="M14" s="19">
+        <f>LOG(ABS((J14-J16)/(J16-J18)),(A16/A14))</f>
+        <v>0.65527657131273054</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>3531</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2.2701051699999999E-2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2.59997805E-2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2.98017226E-2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>6.2895145E-2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3.1715278700000002E-2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1.3205432E-3</v>
+      </c>
+      <c r="H15" s="2">
+        <v>-0.52052446190000001</v>
+      </c>
+      <c r="I15" s="2">
+        <v>7.9280999999999995E-6</v>
+      </c>
+      <c r="J15" s="7">
+        <v>5.5459856852999998</v>
+      </c>
+      <c r="K15" s="17">
+        <f t="shared" si="1"/>
+        <v>0.58200197308156687</v>
+      </c>
+      <c r="L15" s="18">
+        <f t="shared" si="2"/>
+        <v>0.56933926308422622</v>
+      </c>
+      <c r="M15" s="19"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>6923</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1.6073853799999999E-2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.8459330999999999E-2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2.1117931400000001E-2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4.4421197000000003E-2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2.2025218900000001E-2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>6.3842550000000004E-4</v>
+      </c>
+      <c r="H16" s="2">
+        <v>-0.51826271589999995</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2.5502000000000002E-6</v>
+      </c>
+      <c r="J16" s="7">
+        <v>5.6342481339999999</v>
+      </c>
+      <c r="K16" s="17">
+        <f t="shared" si="1"/>
+        <v>0.48198440976595325</v>
+      </c>
+      <c r="L16" s="18">
+        <f t="shared" si="2"/>
+        <v>0.50646245762745168</v>
+      </c>
+      <c r="M16" s="19"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>14113</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1.1184787700000001E-2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.2852364599999999E-2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.4699695400000001E-2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3.06687538E-2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1.55467682E-2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>3.1684209999999999E-4</v>
+      </c>
+      <c r="H17" s="2">
+        <v>-0.50637611400000004</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1.4286E-6</v>
+      </c>
+      <c r="J17" s="7">
+        <v>5.6938967766999999</v>
+      </c>
+      <c r="K17" s="17"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="19"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>27095</v>
+      </c>
+      <c r="B18" s="9">
+        <v>8.0399796000000003E-3</v>
+      </c>
+      <c r="C18" s="9">
+        <v>9.2408238000000007E-3</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1.0566402000000001E-2</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2.2631267100000001E-2</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1.12998106E-2</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1.6598080000000001E-4</v>
+      </c>
+      <c r="H18" s="9">
+        <v>-1.8274696E-3</v>
+      </c>
+      <c r="I18" s="9">
+        <v>8.5662738399999994E-2</v>
+      </c>
+      <c r="J18" s="10">
+        <v>5.7362133735</v>
+      </c>
+      <c r="K18" s="20"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="22"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="48"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>437</v>
+      </c>
+      <c r="B22" s="2">
+        <v>6.9058050300000007E-2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>7.7832715400000002E-2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>9.0160010400000004E-2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.19779184520000001</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.1011968687</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1.3352957699999999E-2</v>
+      </c>
+      <c r="H22" s="2">
+        <v>-8.4039826999999998E-3</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1.1551E-5</v>
+      </c>
+      <c r="J22" s="12">
+        <v>6.1697157708999999</v>
+      </c>
+      <c r="K22" s="17">
+        <f>ABS(LOG(ABS((J22-J23)/(J23-J24)),(A23/A22)))</f>
+        <v>0.91250133049327231</v>
+      </c>
+      <c r="L22" s="18">
+        <f>ABS((LOG(ABS((J23-J24)/J24),2)-LOG(ABS((J22-J23)/J23),2))/(LOG((D24),2) - LOG(D22,2)))</f>
+        <v>0.76131205297079252</v>
+      </c>
+      <c r="M22" s="19">
+        <f>LOG(ABS((J22-J24)/(J24-J26)),(A24/A22))</f>
+        <v>0.5567045284524712</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>869</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4.73522096E-2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>5.3748878799999997E-2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>6.1916103600000001E-2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.1351808699</v>
+      </c>
+      <c r="F23" s="2">
+        <v>7.0694914499999997E-2</v>
+      </c>
+      <c r="G23" s="2">
+        <v>6.5809014999999998E-3</v>
+      </c>
+      <c r="H23" s="2">
+        <v>-6.3051330999999997E-3</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1.3873E-6</v>
+      </c>
+      <c r="J23" s="12">
+        <v>6.3710281466999996</v>
+      </c>
+      <c r="K23" s="17">
+        <f t="shared" ref="K23:K25" si="3">ABS(LOG(ABS((J23-J24)/(J24-J25)),(A24/A23)))</f>
+        <v>1.1406334425098277</v>
+      </c>
+      <c r="L23" s="18">
+        <f t="shared" ref="L23:L25" si="4">(LOG(ABS((J24-J25)/J25),2)-LOG(ABS((J23-J24)/J24),2))/(LOG((D25),2) - LOG(D23,2))</f>
+        <v>1.1326024907847352</v>
+      </c>
+      <c r="M23" s="19">
+        <f>LOG(ABS((J23-J25)/(J25-J27)),(A27/A25))</f>
+        <v>0.85610450062744414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>1757</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3.2494560499999998E-2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3.7098392299999998E-2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>4.2655983000000001E-2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>8.7426870599999998E-2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>4.5782799399999997E-2</v>
+      </c>
+      <c r="G24" s="2">
+        <v>2.7453102E-3</v>
+      </c>
+      <c r="H24" s="2">
+        <v>-5.1650263000000002E-3</v>
+      </c>
+      <c r="I24" s="2">
+        <v>2.586E-7</v>
+      </c>
+      <c r="J24" s="12">
+        <v>6.7479810618</v>
+      </c>
+      <c r="K24" s="17">
+        <f t="shared" si="3"/>
+        <v>0.79576595691417062</v>
+      </c>
+      <c r="L24" s="18">
+        <f t="shared" si="4"/>
+        <v>0.79413089970729278</v>
+      </c>
+      <c r="M24" s="19"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>3497</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2.2707022300000001E-2</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2.5972650900000002E-2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2.9813035500000001E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>6.5650928600000005E-2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>3.2343383699999999E-2</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1.3637406E-3</v>
+      </c>
+      <c r="H25" s="2">
+        <v>-5.6489306999999997E-3</v>
+      </c>
+      <c r="I25" s="2">
+        <v>3.39E-7</v>
+      </c>
+      <c r="J25" s="12">
+        <v>6.9168447097000003</v>
+      </c>
+      <c r="K25" s="17">
+        <f t="shared" si="3"/>
+        <v>0.48887199952270982</v>
+      </c>
+      <c r="L25" s="18">
+        <f t="shared" si="4"/>
+        <v>0.48573352272225856</v>
+      </c>
+      <c r="M25" s="19"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>6907</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1.6002791299999999E-2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1.8365861599999998E-2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2.1026843600000001E-2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4.4822349800000001E-2</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2.2907505500000001E-2</v>
+      </c>
+      <c r="G26" s="2">
+        <v>6.8269550000000004E-4</v>
+      </c>
+      <c r="H26" s="2">
+        <v>-4.7245211000000002E-3</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1.3399999999999999E-8</v>
+      </c>
+      <c r="J26" s="12">
+        <v>7.0144925689999997</v>
+      </c>
+      <c r="K26" s="17"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="19"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>13883</v>
+      </c>
+      <c r="B27" s="9">
+        <v>1.1201387199999999E-2</v>
+      </c>
+      <c r="C27" s="9">
+        <v>1.28763743E-2</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1.47239042E-2</v>
+      </c>
+      <c r="E27" s="9">
+        <v>3.03175054E-2</v>
+      </c>
+      <c r="F27" s="9">
+        <v>1.5621945599999999E-2</v>
+      </c>
+      <c r="G27" s="9">
+        <v>3.2000030000000002E-4</v>
+      </c>
+      <c r="H27" s="9">
+        <v>-2.9596262E-3</v>
+      </c>
+      <c r="I27" s="9">
+        <v>4.3999999999999997E-9</v>
+      </c>
+      <c r="J27" s="13">
+        <v>7.0845017800000001</v>
+      </c>
+      <c r="K27" s="20"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A20:M20"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="L3:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="A10:M10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>